--- a/data/income_statement/2digits/size/46_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/46_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>46-Wholesale trade, except of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>46-Wholesale trade, except of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>83608618.01691</v>
+        <v>84655886.14331</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>95127248.52024999</v>
+        <v>95944560.71095</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>114175062.97243</v>
+        <v>115578184.0478</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>130197585.96311</v>
+        <v>132147502.24317</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>186487600.45623</v>
+        <v>189793700.75525</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>204331612.79317</v>
+        <v>209418673.61921</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>208483309.02359</v>
+        <v>216408429.97405</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>212415224.25043</v>
+        <v>220972562.59152</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>260888022.95062</v>
+        <v>270212387.95448</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>518191456.52606</v>
+        <v>528592343.04542</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>588350093.54162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>609971969.40443</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>671600097.568</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>69582401.56934999</v>
+        <v>70385605.51894</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>79947213.28673999</v>
+        <v>80585745.22989002</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>94722447.50861</v>
+        <v>95864979.12997</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>110430171.87073</v>
+        <v>111992767.87897</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>158783464.97108</v>
+        <v>161619750.33284</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>172337363.7331</v>
+        <v>176743480.75587</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>174943426.02915</v>
+        <v>181567230.88103</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>180520850.68451</v>
+        <v>187853300.27392</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>223850347.36151</v>
+        <v>231844690.87959</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>428477845.98403</v>
+        <v>437012819.84951</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>482926409.62465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>501282281.83916</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>554034519.441</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>12721980.75358</v>
+        <v>12940541.75376</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>13832948.22345</v>
+        <v>13997097.48056</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>17833587.5216</v>
+        <v>18066068.85614</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>18159941.75455</v>
+        <v>18521541.3714</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>25363736.50075</v>
+        <v>25786549.5032</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>29615154.01497</v>
+        <v>30224612.97143999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>31048755.29</v>
+        <v>32213712.69478</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>29437099.06869</v>
+        <v>30522978.02388</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>34394885.52128</v>
+        <v>35545707.88494001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>83779422.65017</v>
+        <v>85474475.14426999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>99014199.62291001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>101978412.1825</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>110661574.671</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1304235.69398</v>
+        <v>1329738.87061</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1347087.01006</v>
+        <v>1361718.0005</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1619027.94222</v>
+        <v>1647136.06169</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1607472.33783</v>
+        <v>1633192.9928</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2340398.9844</v>
+        <v>2387400.91921</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2379095.0451</v>
+        <v>2450579.8919</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2491127.70444</v>
+        <v>2627486.39824</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2457274.497229999</v>
+        <v>2596284.29372</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>2642790.06783</v>
+        <v>2821989.18995</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>5934187.891860001</v>
+        <v>6105048.051639999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>6409484.29406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>6711275.38277</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>6904003.456</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1593666.87934</v>
+        <v>1650472.05974</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1537990.46081</v>
+        <v>1575838.68612</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1748278.46938</v>
+        <v>1815376.08141</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1813343.1703</v>
+        <v>1884216.87664</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2852613.30182</v>
+        <v>2905587.43257</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3005334.33445</v>
+        <v>3762834.62231</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2795828.08001</v>
+        <v>2994113.01453</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4708479.97499</v>
+        <v>5057530.343470001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>17807276.62109</v>
+        <v>17981739.60704</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>9245567.003520001</v>
+        <v>9577149.251710001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>13776343.09067</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14440573.18396</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>20764163.284</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>850760.26627</v>
+        <v>885003.98299</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>830439.52948</v>
+        <v>853756.72415</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>956602.7136000001</v>
+        <v>989337.0464300001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1046740.80466</v>
+        <v>1087951.80049</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1451386.39734</v>
+        <v>1517196.31926</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1751802.01717</v>
+        <v>2468699.95936</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1572357.00774</v>
+        <v>1693546.72448</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>3590528.67028</v>
+        <v>3858955.613510001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>16641481.91955</v>
+        <v>16741130.81139</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>5663322.60788</v>
+        <v>5841276.778059999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>10241488.32765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>10661331.42877</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>16893330.477</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>627625.8730799999</v>
+        <v>647476.7248</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>598772.6947100001</v>
+        <v>613951.4529100001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>669178.7480599999</v>
+        <v>701084.5801</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>651482.5461599999</v>
+        <v>682825.91886</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1209092.28497</v>
+        <v>1185276.21208</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1036834.42632</v>
+        <v>1072444.55671</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>979188.4011200001</v>
+        <v>1041561.56402</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>898438.24075</v>
+        <v>969643.8612399999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>933105.37187</v>
+        <v>997177.4451200002</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2548515.15609</v>
+        <v>2685327.00963</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2701619.28535</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2915354.76257</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2799455.532</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>115280.73999</v>
+        <v>117991.35195</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>108778.23662</v>
+        <v>108130.50906</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>122497.00772</v>
+        <v>124954.45488</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>115119.81948</v>
+        <v>113439.15729</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>192134.61951</v>
+        <v>203114.90123</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>216697.89096</v>
+        <v>221690.10624</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>244282.67115</v>
+        <v>259004.72603</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>219513.06396</v>
+        <v>228930.86872</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>232689.32967</v>
+        <v>243431.35053</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1033729.23955</v>
+        <v>1050545.46402</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>833235.4776700001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>863886.9926200002</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1071377.275</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>82014951.13757001</v>
+        <v>83005414.08357</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>93589258.05944</v>
+        <v>94368722.02483001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>112426784.50305</v>
+        <v>113762807.96639</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>128384242.79281</v>
+        <v>130263285.36653</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>183634987.15441</v>
+        <v>186888113.32268</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>201326278.45872</v>
+        <v>205655838.9969</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>205687480.94358</v>
+        <v>213414316.95952</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>207706744.27544</v>
+        <v>215915032.24805</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>243080746.32953</v>
+        <v>252230648.34744</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>508945889.52254</v>
+        <v>519015193.7937099</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>574573750.4509499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>595531396.22047</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>650835934.284</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>72932142.23082</v>
+        <v>73760869.30555001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>83756265.98420998</v>
+        <v>84441938.38445002</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>101035955.40305</v>
+        <v>102199556.4763</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>115987774.45033</v>
+        <v>117667503.53155</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>165461189.12376</v>
+        <v>168301884.07698</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>181313403.04828</v>
+        <v>185064150.8061</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>184493912.25714</v>
+        <v>191189513.69377</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>185778902.91216</v>
+        <v>192781010.16658</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>218972695.08584</v>
+        <v>226737453.91736</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>459677196.34029</v>
+        <v>468514328.02371</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>521963771.92445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>540850141.53452</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>591600784.183</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4152535.36278</v>
+        <v>4238243.58868</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4931739.85575</v>
+        <v>4989572.70158</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>5810364.23599</v>
+        <v>5949506.52542</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>11617796.22975</v>
+        <v>11784385</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>9014231.80845</v>
+        <v>9224071.306720002</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>9404872.398569999</v>
+        <v>9730881.996479999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>9989974.836139999</v>
+        <v>10564241.00277</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>11280221.45199</v>
+        <v>12012161.96263</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>13030175.52715</v>
+        <v>13940109.29879</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>31252082.49975</v>
+        <v>31948288.31376</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>31491212.24472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>32962932.991</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>38058390.196</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>67083170.14213</v>
+        <v>67796999.14704001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>76875875.29282001</v>
+        <v>77466653.38786</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>92759542.85644999</v>
+        <v>93709434.68265</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>101556948.59532</v>
+        <v>103025239.89043</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>153042100.20488</v>
+        <v>155558104.75782</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>168258621.665</v>
+        <v>171546755.58146</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>170636995.38029</v>
+        <v>176537177.61148</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>170235102.9738</v>
+        <v>176219328.59009</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>200319379.32586</v>
+        <v>206923420.69115</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>419243002.79237</v>
+        <v>426965949.5970899</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>480951357.43079</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>497830926.67878</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>540482791.053</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1564724.78584</v>
+        <v>1577643.64672</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1789369.9085</v>
+        <v>1820366.81854</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2160922.4548</v>
+        <v>2225434.90226</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2596581.00968</v>
+        <v>2635547.09563</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3155028.73936</v>
+        <v>3244472.3508</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3374240.763189999</v>
+        <v>3490081.14622</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3472227.750810001</v>
+        <v>3671357.95054</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3868191.31962</v>
+        <v>4072298.45361</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5053063.8543</v>
+        <v>5271273.48662</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>7856011.98754</v>
+        <v>8257933.66133</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>8298315.240180001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8747768.047870001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>11321006.59</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>131711.94007</v>
+        <v>147982.92311</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>159280.92714</v>
+        <v>165345.47647</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>305125.85581</v>
+        <v>315180.36597</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>216448.61558</v>
+        <v>222331.54549</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>249828.37107</v>
+        <v>275235.66164</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>275668.22152</v>
+        <v>296432.08194</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>394714.2899</v>
+        <v>416737.12898</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>395387.16675</v>
+        <v>477221.16025</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>570076.37853</v>
+        <v>602650.4408</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1326099.06063</v>
+        <v>1342156.45153</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1222887.00876</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1308513.81687</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1738596.344</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>9082808.906749999</v>
+        <v>9244544.77802</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>9832992.075229999</v>
+        <v>9926783.640379999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>11390829.1</v>
+        <v>11563251.49009</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>12396468.34248</v>
+        <v>12595781.83498</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>18173798.03065</v>
+        <v>18586229.2457</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>20012875.41044</v>
+        <v>20591688.1908</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>21193568.68644</v>
+        <v>22224803.26575</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>21927841.36328</v>
+        <v>23134022.08147</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>24108051.24369</v>
+        <v>25493194.43008</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>49268693.18225</v>
+        <v>50500865.77</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>52609978.5265</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>54681254.68595</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>59235150.101</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>6939973.63094</v>
+        <v>7003398.40032</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>7503457.544819999</v>
+        <v>7537670.380700001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>8617880.42</v>
+        <v>8720269.675050002</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>9547023.48717</v>
+        <v>9669019.56985</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>13731818.50488</v>
+        <v>13915933.84859</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>14996259.23044</v>
+        <v>15266865.23923</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>15744946.49399</v>
+        <v>16290338.04933</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>16756880.71767</v>
+        <v>17427252.56289</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>17999432.62345</v>
+        <v>18678235.74129</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>33496227.22055</v>
+        <v>33906559.12635</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>37693328.97016</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>38426161.71973</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>39590825.484</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>19013.85121</v>
+        <v>19035.74503</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>19769.42392</v>
+        <v>21211.27028</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>21051.01202</v>
+        <v>22784.56652</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>22977.61724</v>
+        <v>23241.01924</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>35250.47828</v>
+        <v>36292.3338</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>35775.87103</v>
+        <v>40347.43287</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>32144.33723</v>
+        <v>36867.25573</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>34934.4205</v>
+        <v>41563.72998999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>46473.33643</v>
+        <v>48182.87287000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>79624.61828</v>
+        <v>88161.77021</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>108981.09205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>108740.41212</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>102664.776</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>2767453.13967</v>
+        <v>2831860.22234</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>2997052.09038</v>
+        <v>3032434.38741</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>3399138.56088</v>
+        <v>3482760.69738</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>3751415.22028</v>
+        <v>3826813.83691</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>5609264.878149999</v>
+        <v>5750169.00363</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>6042125.1862</v>
+        <v>6231660.430799999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>6222339.82678</v>
+        <v>6526951.55126</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>6384888.739049999</v>
+        <v>6779413.614800001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>6954763.827149999</v>
+        <v>7304619.946760001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>15202641.33818</v>
+        <v>15569912.64835</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>17076859.447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17734284.75162</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>17953592.026</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>4153506.64006</v>
+        <v>4152502.43295</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>4486636.03052</v>
+        <v>4484024.72301</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>5197690.847100001</v>
+        <v>5214724.41115</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>5772630.64965</v>
+        <v>5818964.713700001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>8087303.14845</v>
+        <v>8129472.51116</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>8918358.173209999</v>
+        <v>8994857.375560001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>9490462.329979999</v>
+        <v>9726519.24234</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>10337057.55812</v>
+        <v>10606275.2181</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>10998195.45987</v>
+        <v>11325432.92166</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>18213961.26409</v>
+        <v>18248484.70779</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>20507488.43111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>20583136.55599</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>21534568.682</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>2142835.27581</v>
+        <v>2241146.3777</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2329534.53041</v>
+        <v>2389113.25968</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2772948.68</v>
+        <v>2842981.81504</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2849444.85531</v>
+        <v>2926762.26513</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4441979.52577</v>
+        <v>4670295.397109999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>5016616.18</v>
+        <v>5324822.95157</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>5448622.19245</v>
+        <v>5934465.21642</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>5170960.64561</v>
+        <v>5706769.51858</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>6108618.62024</v>
+        <v>6814958.68879</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>15772465.9617</v>
+        <v>16594306.64365</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>14916649.55634</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16255092.96622</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>19644324.617</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1013882.12282</v>
+        <v>1126653.89749</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>913797.0573499999</v>
+        <v>1128516.48783</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1211387.43292</v>
+        <v>1584726.36343</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>877552.2415400001</v>
+        <v>1101833.274</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1872936.11952</v>
+        <v>2376277.91021</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1824362.67774</v>
+        <v>2424635.73675</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2883570.48778</v>
+        <v>3762890.79035</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2382622.84482</v>
+        <v>3544103.33174</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>2718177.24564</v>
+        <v>3497985.55739</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>16852405.58578</v>
+        <v>18970402.44566</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>9522440.084400002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>10964436.48372</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>16643121.488</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>10045.52007</v>
+        <v>15865.48149</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>11312.64156</v>
+        <v>31328.31501</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>14294.70808</v>
+        <v>33744.23007</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>9386.730310000001</v>
+        <v>25402.01898</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>24939.12127</v>
+        <v>101364.86301</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>18902.88046</v>
+        <v>53294.31134</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>25797.23948</v>
+        <v>17566.26833</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>29990.40279</v>
+        <v>31097.09971</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>38371.63376999999</v>
+        <v>34200.65718</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>90508.38803999999</v>
+        <v>164271.49315</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>94862.96016</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>78210.76755000002</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>77778.68700000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>8699.52147</v>
+        <v>18068.68846</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>9051.635699999999</v>
+        <v>9653.393759999999</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>6201.9915</v>
+        <v>10596.33512</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1854.30269</v>
+        <v>11836.48579</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>7047.79664</v>
+        <v>5322.10892</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>5346.14952</v>
+        <v>52038.13727</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>11338.48506</v>
+        <v>52992.12793</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>6039.39794</v>
+        <v>31032.07452</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>4860.73589</v>
+        <v>28993.51273000001</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>51251.82834</v>
+        <v>68443.23581999999</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>21689.51464</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>113539.86724</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>39320.629</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>79912.24885999999</v>
+        <v>85126.69007000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>64962.67117</v>
+        <v>74863.07843000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>68803.40088</v>
+        <v>106692.87913</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>81749.27283</v>
+        <v>113579.09865</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>115567.5377</v>
+        <v>151354.74974</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>143997.23491</v>
+        <v>217959.22636</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>163880.20472</v>
+        <v>199283.57011</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>158246.76272</v>
+        <v>250095.6538</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>204899.55387</v>
+        <v>298289.3026400001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>756024.01663</v>
+        <v>925430.0849000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>858267.6287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1048965.23516</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>789387.436</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>38824.82909000001</v>
+        <v>35639.97408</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>39930.48578</v>
+        <v>40350.50053</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>51824.11739999999</v>
+        <v>53630.36349</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>54038.93576000001</v>
+        <v>54176.03436</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>73430.53910999998</v>
+        <v>67669.63583</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>79147.16609</v>
+        <v>80902.09515000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>85270.83064</v>
+        <v>78063.78022999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>62299.81601</v>
+        <v>72251.17367</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>84355.39870999999</v>
+        <v>87595.54667</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>207206.87035</v>
+        <v>237840.08256</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>189452.74163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>176914.31491</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>156754.727</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>37763.59364</v>
+        <v>32021.32408999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>24352.27866</v>
+        <v>24818.76709</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>28850.72979</v>
+        <v>26723.2556</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>24050.13119</v>
+        <v>25784.86895</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>40313.72502</v>
+        <v>43245.93157</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>48301.71473</v>
+        <v>56260.73586</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>36953.46259</v>
+        <v>111525.42134</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>41299.44353</v>
+        <v>161704.49879</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>62502.24797</v>
+        <v>125805.79807</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>375463.23885</v>
+        <v>105576.68067</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>247868.12695</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>151583.05173</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>216643.953</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>9220.80392</v>
+        <v>9469.84129</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>6711.93034</v>
+        <v>19640.2601</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>14036.08327</v>
+        <v>99380.17675</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>9979.45126</v>
+        <v>16816.07611</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>14180.21706</v>
+        <v>23598.70366</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>21634.96989</v>
+        <v>27498.00034</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>20089.42435</v>
+        <v>21824.81703</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>16218.18811</v>
+        <v>29314.07884</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>28338.05285</v>
+        <v>38925.49513</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>107056.59861</v>
+        <v>128356.80944</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>108430.26228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>102300.13977</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>228572.419</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>605828.08902</v>
+        <v>693365.29211</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>530920.96412</v>
+        <v>631125.0749400001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>783577.43119</v>
+        <v>958736.05345</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>458311.09563</v>
+        <v>572014.99271</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1242680.24898</v>
+        <v>1579530.76365</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1152657.03137</v>
+        <v>1504285.11022</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2144131.54179</v>
+        <v>2832180.3714</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1673788.44918</v>
+        <v>2402726.81792</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1887430.3859</v>
+        <v>2373939.381</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>14189729.84255</v>
+        <v>16119643.08728</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6805840.10794</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>7789898.12375</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>13830741.832</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>3580.82834</v>
+        <v>4266.26842</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>2543.55374</v>
+        <v>3460.65295</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>2927.21943</v>
+        <v>2952.73408</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>2499.12508</v>
+        <v>2748.11147</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>4147.05693</v>
+        <v>5434.635949999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>7195.579030000001</v>
+        <v>8754.35014</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>7850.84299</v>
+        <v>9369.329389999999</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>6899.841469999999</v>
+        <v>9771.323199999999</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>6742.698050000001</v>
+        <v>8214.75129</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>59825.43892</v>
+        <v>64587.45107</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>52410.08336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>60341.65489</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>41424.351</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>3471.07653</v>
+        <v>3874.2709</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>2582.87695</v>
+        <v>2665.32978</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>3651.33202</v>
+        <v>3381.92343</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>3418.40582</v>
+        <v>3369.18485</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>5828.22958</v>
+        <v>7592.32859</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>4829.8406</v>
+        <v>5699.96566</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>5125.000659999999</v>
+        <v>4837.08883</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>6486.235430000001</v>
+        <v>6459.55692</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>11858.60252</v>
+        <v>8688.08381</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>41559.95974000001</v>
+        <v>40357.68496</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>19016.12951</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>21507.34848</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>45024.29</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>216535.61188</v>
+        <v>228956.06658</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>221428.01933</v>
+        <v>290611.11524</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>237220.41936</v>
+        <v>288888.41231</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>232264.79097</v>
+        <v>276106.40213</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>344801.64723</v>
+        <v>391164.18929</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>342350.11114</v>
+        <v>417943.80441</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>383133.4555</v>
+        <v>435248.01576</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>381354.30764</v>
+        <v>549651.05437</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>388817.93611</v>
+        <v>493333.02887</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>973779.4037500001</v>
+        <v>1115895.83581</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1124602.52923</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1421175.98024</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1217473.164</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>898210.65469</v>
+        <v>1064079.11952</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>719785.4781800001</v>
+        <v>867901.8590599999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1039029.01324</v>
+        <v>1278264.63682</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>755632.6089100001</v>
+        <v>903832.35172</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1641966.08972</v>
+        <v>2072724.56573</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1594629.9808</v>
+        <v>2030109.82765</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2522481.703730001</v>
+        <v>3451539.59004</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2130918.16011</v>
+        <v>3059350.31691</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2280950.54706</v>
+        <v>2958960.75973</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>16989873.33807</v>
+        <v>18566828.20794</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>8052675.73964</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>9181229.762149999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>14566374.136</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>49854.91117</v>
+        <v>39295.89758</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>38106.69772</v>
+        <v>38342.00311</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>40605.48295000001</v>
+        <v>41680.53746</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>48644.95744</v>
+        <v>49124.155</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>78798.54145</v>
+        <v>78720.10489</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>90120.50123000001</v>
+        <v>92709.25165000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>85166.38956</v>
+        <v>88854.40929000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>78029.22798000001</v>
+        <v>82336.92396000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>81413.42650999999</v>
+        <v>84386.70718000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>238943.43434</v>
+        <v>238668.5748</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>250331.1289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>262824.21337</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>324413.494</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>141720.20965</v>
+        <v>231280.16727</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>86212.47947000001</v>
+        <v>89007.79601000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>94954.56283</v>
+        <v>106991.84309</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>152975.21677</v>
+        <v>168905.13884</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>198522.02201</v>
+        <v>214221.24879</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>211643.20083</v>
+        <v>227086.79603</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>209018.46512</v>
+        <v>313848.05953</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>278855.6401900001</v>
+        <v>310220.98203</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>209992.86757</v>
+        <v>267450.73106</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1550316.90617</v>
+        <v>786100.0714200001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>769261.7120599999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>740044.49882</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>529607.0060000001</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>4271.74501</v>
+        <v>5525.0073</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>4109.02711</v>
+        <v>3512.97285</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>10687.30067</v>
+        <v>20475.46023</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>8149.36686</v>
+        <v>4714.1515</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>6581.253720000001</v>
+        <v>16165.79097</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>9623.10304</v>
+        <v>26760.44104</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>9627.45248</v>
+        <v>16316.4155</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>3419.2497</v>
+        <v>6007.292050000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>27933.19295</v>
+        <v>30110.17234</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>69929.31220999999</v>
+        <v>58234.90973000001</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>39063.22195000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>39036.92711</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>153611.365</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>600122.59374</v>
+        <v>697299.3576799999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>509660.15113</v>
+        <v>603852.5836899999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>784103.97496</v>
+        <v>993652.08837</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>457008.90328</v>
+        <v>546080.26779</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1224486.29784</v>
+        <v>1586765.46348</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1132989.55519</v>
+        <v>1527084.12954</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2063326.7928</v>
+        <v>2858446.807899999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1588765.76904</v>
+        <v>2409682.82136</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1810724.41914</v>
+        <v>2389664.62345</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>14555246.0653</v>
+        <v>16874474.31702</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6579032.575449999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7606381.34203</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>13051625.882</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>2488.75396</v>
+        <v>2918.851630000001</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>1592.6081</v>
+        <v>1593.78159</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>2093.89762</v>
+        <v>2478.68235</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>2848.88757</v>
+        <v>3027.40788</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>7291.49183</v>
+        <v>9435.836309999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>7676.576950000001</v>
+        <v>8980.026230000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>8073.943240000001</v>
+        <v>11023.10434</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>8408.39057</v>
+        <v>11094.55725</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>7358.46312</v>
+        <v>10077.23867</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>75263.10777000002</v>
+        <v>84063.21822999998</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>51389.095</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>63337.75648</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>51876.699</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>2047.92704</v>
+        <v>2675.12302</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>3405.98912</v>
+        <v>3225.368640000001</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>4229.752509999999</v>
+        <v>3728.42745</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>2598.49174</v>
+        <v>2963.87665</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>4843.00925</v>
+        <v>5657.92697</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>6520.200489999998</v>
+        <v>7593.448299999999</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>7509.66915</v>
+        <v>7174.557319999999</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>7767.943069999999</v>
+        <v>9326.462519999999</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>9693.820379999999</v>
+        <v>9988.09348</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>59785.78884</v>
+        <v>56300.15338</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>18853.2565</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>18960.45751</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>44865.271</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>97704.51412000001</v>
+        <v>85084.71504000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>76698.52553</v>
+        <v>128367.35317</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>102354.0417</v>
+        <v>109257.59787</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>83406.78525</v>
+        <v>129017.35406</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>121443.47362</v>
+        <v>161758.19432</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>136056.84307</v>
+        <v>139895.73486</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>139758.99138</v>
+        <v>155876.23616</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>165671.93956</v>
+        <v>230681.27774</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>133834.35739</v>
+        <v>167283.19355</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>440388.72344</v>
+        <v>468986.96336</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>344744.74978</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>450644.56683</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>410374.419</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>806947.9175499999</v>
+        <v>901075.33028</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>656941.6284299999</v>
+        <v>691864.5370599999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>788543.3432999999</v>
+        <v>889375.7775399999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>961029.0822300001</v>
+        <v>1109825.34391</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1348269.74957</v>
+        <v>1540878.67888</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1576267.83472</v>
+        <v>1864049.26704</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1800962.77264</v>
+        <v>2279033.67241</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1888114.49994</v>
+        <v>2477786.57159</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1978984.1063</v>
+        <v>2726671.95774</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>7112130.81791</v>
+        <v>7752930.97699</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>6657536.80617</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>7521420.54784</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5952503.434</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>751566.6125299999</v>
+        <v>847389.14111</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>614673.5672899999</v>
+        <v>668887.0294700001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>759477.0155699999</v>
+        <v>857691.04995</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>925941.6324</v>
+        <v>1073699.49063</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1295685.09924</v>
+        <v>1485466.67541</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1522256.48239</v>
+        <v>1793791.10723</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1740776.81137</v>
+        <v>2182620.73781</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1821638.78665</v>
+        <v>2367450.011729999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1897608.7166</v>
+        <v>2607851.99931</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>6791670.76776</v>
+        <v>7392445.041290001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>6357238.2824</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>7135686.99518</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5612675.899</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>55381.30501999999</v>
+        <v>53686.18917000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>42268.06114</v>
+        <v>22977.50759</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>29066.32773</v>
+        <v>31684.72759</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>35087.44983</v>
+        <v>36125.85328</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>52584.65033</v>
+        <v>55412.00347</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>54011.35233</v>
+        <v>70258.15981</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>60185.96126999999</v>
+        <v>96412.93459999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>66475.71328999999</v>
+        <v>110336.55986</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>81375.38969999999</v>
+        <v>118819.95843</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>320460.05015</v>
+        <v>360485.9357</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>300298.52377</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>385733.55266</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>339827.535</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1451558.82639</v>
+        <v>1402645.82539</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1866604.48115</v>
+        <v>1957863.35139</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2156763.75638</v>
+        <v>2260067.76411</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2010335.40571</v>
+        <v>2014937.8435</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3324679.806</v>
+        <v>3432970.06271</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3670081.04222</v>
+        <v>3855299.59363</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>4008748.20386</v>
+        <v>3966782.74432</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>3534550.83038</v>
+        <v>3713735.96182</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>4566861.212520001</v>
+        <v>4627311.52871</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>8522867.3915</v>
+        <v>9244949.904379999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>9728877.094930001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>10516879.13995</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>15768568.535</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>240701.98475</v>
+        <v>265997.93622</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>295840.0733</v>
+        <v>277891.92724</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>318952.05124</v>
+        <v>342608.02051</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>340188.2534700001</v>
+        <v>418892.22192</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>824699.67868</v>
+        <v>648737.19712</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>549014.74573</v>
+        <v>628512.37899</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>643813.01361</v>
+        <v>787205.2859400001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>717443.41299</v>
+        <v>960549.94629</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>778808.2880699999</v>
+        <v>966367.9168900001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1680524.49589</v>
+        <v>1716915.92879</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1770550.49625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1966711.05461</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2222673.093</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>13417.67091</v>
+        <v>15162.61596</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>5958.604379999999</v>
+        <v>6911.52323</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>6177.82677</v>
+        <v>5072.096619999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>6492.42995</v>
+        <v>11839.87773</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>27930.67677</v>
+        <v>11121.92172</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>11424.24053</v>
+        <v>14885.64884</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>11210.24802</v>
+        <v>12772.00327</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>10982.02601</v>
+        <v>10399.20157</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>10256.73487</v>
+        <v>8263.58548</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>24335.49289</v>
+        <v>22099.54187</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>42266.29306</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>52297.83343000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>24352.665</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>227284.31384</v>
+        <v>250835.32026</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>289881.46892</v>
+        <v>270980.40401</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>312774.22447</v>
+        <v>337535.92389</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>333695.82352</v>
+        <v>407052.34419</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>796769.00191</v>
+        <v>637615.2753999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>537590.5052</v>
+        <v>613626.73015</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>632602.7655900001</v>
+        <v>774433.28267</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>706461.3869800001</v>
+        <v>950150.7447200001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>768551.5532000001</v>
+        <v>958104.3314100001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1656189.003</v>
+        <v>1694816.38692</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1728284.20319</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1914413.22118</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2198320.428</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>223662.8503</v>
+        <v>288751.40259</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>342485.0784</v>
+        <v>242459.96211</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1711944.2814</v>
+        <v>1714612.8624</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>312381.824</v>
+        <v>360455.87512</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>439384.8811</v>
+        <v>513265.10499</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1132643.56539</v>
+        <v>1115837.71425</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>490732.4084</v>
+        <v>575074.6890199999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1802664.02136</v>
+        <v>1900497.07077</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>611006.6331699999</v>
+        <v>846867.4848</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2844057.25628</v>
+        <v>3403293.47245</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1311055.06129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1317038.43181</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1637013.952</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>9981.228729999999</v>
+        <v>6405.106559999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>9025.73589</v>
+        <v>8269.954970000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>12025.47</v>
+        <v>13524.18118</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>9995.086210000001</v>
+        <v>9855.75059</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>9060.725269999999</v>
+        <v>15100.7379</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>10204.1713</v>
+        <v>12598.55166</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>9388.89877</v>
+        <v>16995.93194</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>14042.63585</v>
+        <v>18879.38472</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>13886.51497</v>
+        <v>21405.30925</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>25085.20449</v>
+        <v>33623.66344</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>22142.91168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>21306.22917</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>23661.746</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>14139.27978</v>
+        <v>13779.24417</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>22559.44644</v>
+        <v>18519.96097</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>20768.50901</v>
+        <v>30790.30926</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>13573.3542</v>
+        <v>19198.30006</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>21773.43547</v>
+        <v>18017.92591</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>23371.51046</v>
+        <v>22833.4684</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>21278.41847</v>
+        <v>20388.98009</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>43980.81916</v>
+        <v>38800.18575</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>21151.9018</v>
+        <v>24064.21352</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>54680.29033</v>
+        <v>65312.3055</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>63997.7141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>73558.06256999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>63988.812</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>199542.34179</v>
+        <v>268567.05186</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>310899.8960700001</v>
+        <v>215670.04617</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1679150.30239</v>
+        <v>1670298.37196</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>288813.38359</v>
+        <v>331401.8244700001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>408550.72036</v>
+        <v>480146.4411800001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1099067.88363</v>
+        <v>1080405.69419</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>460065.09116</v>
+        <v>537689.77699</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1744640.56635</v>
+        <v>1842817.5003</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>575968.2164</v>
+        <v>801397.9620299999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2764291.76146</v>
+        <v>3304357.50351</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1224914.43551</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1222174.14007</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1549363.394</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1468597.96084</v>
+        <v>1379892.35902</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1819959.47605</v>
+        <v>1993295.31652</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>763771.52622</v>
+        <v>888062.9222200001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2038141.83518</v>
+        <v>2073374.1903</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3709994.60358</v>
+        <v>3568442.15484</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3086452.22256</v>
+        <v>3367974.25837</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4161828.809069999</v>
+        <v>4178913.34124</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>2449330.22201</v>
+        <v>2773788.83734</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>4734662.86742</v>
+        <v>4746811.9608</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>7359334.63111</v>
+        <v>7558572.36072</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>10188372.52989</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>11166551.76275</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>16354227.676</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>352559.51408</v>
+        <v>353547.18728</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>400152.7031</v>
+        <v>405560.13573</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>478658.42413</v>
+        <v>494089.5024699999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>465825.77061</v>
+        <v>476653.9645700001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>755435.44832</v>
+        <v>779982.82526</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>811403.6879400001</v>
+        <v>846034.17774</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>895460.0900699999</v>
+        <v>934016.13107</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>867339.1219299999</v>
+        <v>911816.15465</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>990718.70174</v>
+        <v>1043332.89686</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2380440.16061</v>
+        <v>2445857.56788</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2442327.64664</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2554163.59885</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>3517919.364</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1116038.44676</v>
+        <v>1026345.17174</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1419806.77295</v>
+        <v>1587735.18079</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>285113.10209</v>
+        <v>393973.41975</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1572316.06457</v>
+        <v>1596720.22573</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2954559.15526</v>
+        <v>2788459.32958</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2275048.53462</v>
+        <v>2521940.08063</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3266368.719</v>
+        <v>3244897.21017</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1581991.10008</v>
+        <v>1861972.68269</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>3743944.16568</v>
+        <v>3703479.06394</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>4978894.4705</v>
+        <v>5112714.79284</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>7746044.88325</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>8612388.163899999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>12836308.312</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>23876</v>
+        <v>20043</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>26053</v>
+        <v>21590</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>28627</v>
+        <v>24104</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>30667</v>
+        <v>25855</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>37478</v>
+        <v>31087</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>40360</v>
+        <v>33356</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>42970</v>
+        <v>35597</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>45097</v>
+        <v>36772</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>48374</v>
+        <v>39157</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>36987</v>
+        <v>31867</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>38722</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>33165</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>36374</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>